--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3007577.29765551</v>
+        <v>3001855.685687625</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>105.1406359466289</v>
       </c>
       <c r="U2" t="n">
-        <v>36.80453676746914</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>80.30846669433845</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>343.5529773095826</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>34.50046002839182</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>133.213740718609</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>32.49138749858549</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>130.6713224100494</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>19.19127784906382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>6.791389034820037</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>18.01892853764511</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>49.11860396213132</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>94.90446584096617</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>52.23543626470354</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>35.01474696300851</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>25.23055120993192</v>
+        <v>113.5103646250816</v>
       </c>
     </row>
     <row r="20">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>24.86185588670076</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>56.12687015635222</v>
       </c>
       <c r="C25" t="n">
-        <v>81.73686178476177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.921725653453</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>156.3962019548793</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>132.3308855576708</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>153.3068073763575</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>159.4891977481208</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3480,13 +3480,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>174.0284418697866</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.153367246128869</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>201.360032484281</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.8079923071222</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>36.41670903610059</v>
       </c>
       <c r="S46" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
         <v>1036.358670716696</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2359.740251290533</v>
       </c>
       <c r="U2" t="n">
-        <v>2483.795303567272</v>
+        <v>2105.978465928625</v>
       </c>
       <c r="V2" t="n">
-        <v>2152.732416223701</v>
+        <v>1774.915578585054</v>
       </c>
       <c r="W2" t="n">
-        <v>1799.963760953587</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="X2" t="n">
-        <v>1426.498002692507</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406182</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406182</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1139.146815977588</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1139.146815977588</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1139.146815977588</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1139.146815977588</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>728.1609111879804</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2331.237254151024</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.74665604171</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4649,16 +4649,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.5023158795654</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C7" t="n">
-        <v>188.5023158795654</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D7" t="n">
-        <v>188.5023158795654</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>402.6523129118469</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>255.7623654139366</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>86.76256515226899</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230955</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X7" t="n">
-        <v>409.2948950230955</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y7" t="n">
-        <v>188.5023158795654</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1383.846446409822</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="C8" t="n">
-        <v>1014.883929469411</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D8" t="n">
-        <v>1014.883929469411</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>1014.883929469411</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>603.8980246798033</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>185.9342165779901</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>185.9342165779901</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2677.763961877754</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2677.763961877754</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646714</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="W8" t="n">
-        <v>2147.451536646714</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="X8" t="n">
-        <v>1773.985778385634</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="Y8" t="n">
-        <v>1383.846446409822</v>
+        <v>2459.129294849817</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="T10" t="n">
-        <v>477.5636529541582</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="U10" t="n">
-        <v>477.5636529541582</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="V10" t="n">
-        <v>222.8791647482714</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="W10" t="n">
-        <v>222.8791647482714</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482714</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5038,55 +5038,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
@@ -5153,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>873.9435237404408</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="C13" t="n">
-        <v>705.0073408125339</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D13" t="n">
         <v>655.3925893356336</v>
@@ -5190,13 +5190,13 @@
         <v>360.5895482553301</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1860.480369295647</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862232</v>
+        <v>1638.713753865173</v>
       </c>
       <c r="U13" t="n">
-        <v>1577.410141987875</v>
+        <v>1349.610886990817</v>
       </c>
       <c r="V13" t="n">
-        <v>1322.725653781988</v>
+        <v>1094.92639878493</v>
       </c>
       <c r="W13" t="n">
-        <v>1322.725653781988</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="X13" t="n">
-        <v>1094.736102883971</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="Y13" t="n">
-        <v>873.9435237404408</v>
+        <v>805.5092287479694</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5275,7 +5275,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
         <v>451.8458144277729</v>
@@ -5284,46 +5284,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3931.363334276589</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>709.6864413838521</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C16" t="n">
-        <v>709.6864413838521</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D16" t="n">
-        <v>559.5698019715163</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E16" t="n">
-        <v>559.5698019715163</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838521</v>
+        <v>873.9047229025747</v>
       </c>
       <c r="X16" t="n">
-        <v>709.6864413838521</v>
+        <v>645.9151720045573</v>
       </c>
       <c r="Y16" t="n">
-        <v>709.6864413838521</v>
+        <v>425.1225928610272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
@@ -5524,43 +5524,43 @@
         <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2750.97154338438</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N17" t="n">
-        <v>3297.750360443163</v>
+        <v>3496.417082105038</v>
       </c>
       <c r="O17" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D19" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5700,25 +5700,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1355.643526557401</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1100.959038351514</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>811.5418683145538</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>583.5523174165364</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>558.0669121539789</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5749,31 +5749,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294612</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353394</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5822,13 +5822,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>729.2066409118285</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>560.2704579839216</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5946,16 +5946,16 @@
         <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1138.844656640086</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>1138.844656640086</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>910.8551057420682</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>910.8551057420682</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5977,49 +5977,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279158</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>623.0432015923082</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C25" t="n">
-        <v>540.4807149410336</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>390.3640755286979</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6180,19 +6180,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.890966501056</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1542.890966501056</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>1253.473796464095</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>1025.484245566078</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y25" t="n">
-        <v>804.6916664225479</v>
+        <v>488.8938622403219</v>
       </c>
     </row>
     <row r="26">
@@ -6208,22 +6208,22 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6244,19 +6244,19 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604874</v>
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
@@ -6302,13 +6302,13 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
         <v>794.2006632320242</v>
@@ -6323,22 +6323,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>972.7495048756253</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>803.8133219477185</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6414,22 +6414,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1674.827124689058</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1674.827124689058</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1420.142636483171</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1130.72546644621</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>1130.72546644621</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>972.7495048756253</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6448,7 +6448,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
         <v>850.213983755162</v>
@@ -6460,55 +6460,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6548,7 +6548,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6560,22 +6560,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>692.2950589102011</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>523.3588759822942</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>389.6913148129298</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.513008862232</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>1577.410141987875</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1322.725653781988</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>1322.725653781988</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>1094.736102883971</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>873.9435237404408</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6691,46 +6691,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>416.1091927888621</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1070.832524924162</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1521.86673817257</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M32" t="n">
-        <v>2055.398642844495</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903277</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>973.7726509601081</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="C34" t="n">
-        <v>804.8364680322012</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="D34" t="n">
-        <v>654.7198286198654</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E34" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U34" t="n">
-        <v>1577.410141987875</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V34" t="n">
-        <v>1422.554781001656</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W34" t="n">
-        <v>1422.554781001656</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X34" t="n">
-        <v>1194.565230103638</v>
+        <v>962.0387412419233</v>
       </c>
       <c r="Y34" t="n">
-        <v>973.7726509601081</v>
+        <v>741.2461620983931</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6940,25 +6940,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>907.9024249011961</v>
       </c>
       <c r="L35" t="n">
-        <v>1586.925993846823</v>
+        <v>1772.421240554551</v>
       </c>
       <c r="M35" t="n">
-        <v>2120.457898518747</v>
+        <v>2750.971543384379</v>
       </c>
       <c r="N35" t="n">
-        <v>2667.23671557753</v>
+        <v>3297.750360443162</v>
       </c>
       <c r="O35" t="n">
-        <v>3547.201365906984</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
         <v>4778.05172241972</v>
@@ -6973,16 +6973,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,22 +7046,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839441</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>823.3173065018362</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>595.3277556038189</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>374.5351764602888</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7189,13 +7189,13 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R38" t="n">
         <v>4778.05172241972</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>389.6913148129298</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>389.6913148129298</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>389.6913148129298</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839441</v>
@@ -7365,19 +7365,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>389.6913148129298</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390117</v>
@@ -7496,7 +7496,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7511,31 +7511,31 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>875.4238276939707</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C43" t="n">
-        <v>706.4876447660638</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D43" t="n">
-        <v>556.371005353728</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E43" t="n">
-        <v>556.371005353728</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F43" t="n">
         <v>409.4810578558177</v>
@@ -7563,10 +7563,10 @@
         <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1866.513008862232</v>
+        <v>1752.949493898359</v>
       </c>
       <c r="V43" t="n">
-        <v>1611.828520656345</v>
+        <v>1498.265005692472</v>
       </c>
       <c r="W43" t="n">
-        <v>1322.411350619384</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="X43" t="n">
-        <v>1094.421799721367</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y43" t="n">
-        <v>875.4238276939707</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="44">
@@ -7651,25 +7651,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O44" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839441</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1919.558911522784</v>
       </c>
       <c r="S46" t="n">
-        <v>1780.96276986786</v>
+        <v>1727.87302734961</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1506.106411919136</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1217.00354504478</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>962.3190568388932</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>672.9018868019325</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>444.9123359039152</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561023</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8932,25 +8932,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>344.7025836476839</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>146.0713065388574</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9172,22 +9172,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>248.8400772687157</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>77.35795430876999</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>344.702583647683</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10114,19 +10114,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>132.9990175570123</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,28 +10588,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>123.4719563470472</v>
       </c>
       <c r="L35" t="n">
-        <v>29.61882225792044</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792002</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>67.53663776704173</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>99.49686905608104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>94.86455949047573</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>93.18561175822771</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>251.5082513735825</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>193.3541021421629</v>
+        <v>105.0742887270132</v>
       </c>
     </row>
     <row r="20">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>227.2757874371272</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>123.7051100255851</v>
       </c>
       <c r="C25" t="n">
-        <v>85.50995931386606</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24420,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>62.18845139721552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>16.28458746054159</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>98.83083594747052</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>66.22045764091638</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>112.4945564668044</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>216.4312861059659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25842,7 +25842,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>84.85180572133191</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.776661044972627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>52.51544363394674</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751956.8841304289</v>
+        <v>751956.8841304288</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751956.8841304289</v>
+        <v>751956.8841304288</v>
       </c>
     </row>
     <row r="8">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>751956.8841304289</v>
+        <v>751956.8841304288</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>655184.9483635229</v>
+        <v>655184.9483635228</v>
       </c>
       <c r="F2" t="n">
-        <v>655184.9483635224</v>
+        <v>655184.9483635225</v>
       </c>
       <c r="G2" t="n">
         <v>655184.9483635224</v>
       </c>
       <c r="H2" t="n">
+        <v>655184.9483635225</v>
+      </c>
+      <c r="I2" t="n">
+        <v>655184.9483635228</v>
+      </c>
+      <c r="J2" t="n">
+        <v>655184.9483635228</v>
+      </c>
+      <c r="K2" t="n">
+        <v>655184.9483635225</v>
+      </c>
+      <c r="L2" t="n">
+        <v>655184.9483635229</v>
+      </c>
+      <c r="M2" t="n">
         <v>655184.9483635223</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>655184.9483635225</v>
-      </c>
-      <c r="J2" t="n">
-        <v>655184.9483635221</v>
-      </c>
-      <c r="K2" t="n">
-        <v>655184.9483635223</v>
-      </c>
-      <c r="L2" t="n">
-        <v>655184.9483635226</v>
-      </c>
-      <c r="M2" t="n">
-        <v>655184.9483635221</v>
-      </c>
-      <c r="N2" t="n">
-        <v>655184.9483635226</v>
       </c>
       <c r="O2" t="n">
         <v>655184.9483635224</v>
       </c>
       <c r="P2" t="n">
-        <v>655184.9483635224</v>
+        <v>655184.9483635225</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,31 +26423,31 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="I4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="J4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="L4" t="n">
         <v>18148.49231918993</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18148.49231918993</v>
-      </c>
-      <c r="L4" t="n">
-        <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
         <v>18148.49231918993</v>
@@ -26456,7 +26456,7 @@
         <v>18148.49231918993</v>
       </c>
       <c r="O4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="P4" t="n">
         <v>18148.49231918993</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
@@ -26487,19 +26487,19 @@
         <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
@@ -26508,7 +26508,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-178816.1839970484</v>
+        <v>-178816.1839970485</v>
       </c>
       <c r="C6" t="n">
-        <v>411151.695217496</v>
+        <v>411151.6952174959</v>
       </c>
       <c r="D6" t="n">
-        <v>411151.6952174961</v>
+        <v>411151.6952174958</v>
       </c>
       <c r="E6" t="n">
-        <v>-186724.4762027875</v>
+        <v>-187396.4311050452</v>
       </c>
       <c r="F6" t="n">
-        <v>540652.9377906189</v>
+        <v>539980.9828883611</v>
       </c>
       <c r="G6" t="n">
-        <v>540652.9377906189</v>
+        <v>539980.982888361</v>
       </c>
       <c r="H6" t="n">
-        <v>540652.9377906187</v>
+        <v>539980.9828883611</v>
       </c>
       <c r="I6" t="n">
-        <v>540652.937790619</v>
+        <v>539980.9828883613</v>
       </c>
       <c r="J6" t="n">
-        <v>364229.7185980256</v>
+        <v>363557.7636957682</v>
       </c>
       <c r="K6" t="n">
-        <v>540652.9377906187</v>
+        <v>539980.9828883611</v>
       </c>
       <c r="L6" t="n">
-        <v>540652.9377906191</v>
+        <v>539980.9828883614</v>
       </c>
       <c r="M6" t="n">
-        <v>411010.6229516738</v>
+        <v>410338.6680494161</v>
       </c>
       <c r="N6" t="n">
-        <v>540652.9377906191</v>
+        <v>539980.9828883611</v>
       </c>
       <c r="O6" t="n">
-        <v>540652.9377906189</v>
+        <v>539980.982888361</v>
       </c>
       <c r="P6" t="n">
-        <v>540652.9377906189</v>
+        <v>539980.9828883611</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>111.3076844110289</v>
       </c>
       <c r="U2" t="n">
-        <v>214.4196307408201</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>86.93835440428938</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>70.23119271121237</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>19.97794254641989</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27675,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,16 +27782,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>13.22022192796021</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>123.6795013432097</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>21.25999383481181</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>35.28712472574783</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>218.2437164232642</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>268.2629457043326</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32317,7 +32317,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32800,7 +32800,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -35017,7 +35017,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115028</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
@@ -35424,7 +35424,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35652,25 +35652,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>883.6236994779107</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>544.8332927582293</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35892,22 +35892,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>787.7611930989425</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>585.4109551969891</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>883.6236994779098</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36609,7 +36609,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36834,19 +36834,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>323.7860185257249</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>460.6632429024477</v>
       </c>
       <c r="L35" t="n">
-        <v>485.2089366502526</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37557,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37566,7 +37566,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>89.2320208001448</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>575.5896386552608</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38040,7 +38040,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3001855.685687625</v>
+        <v>3005261.176812073</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>237.9332843063845</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -712,7 +712,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>105.1406359466289</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>117.3399053404222</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.50046002839182</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,13 +1071,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>32.49138749858549</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>14.46389722690844</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>96.95377689311859</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>19.19127784906382</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>59.72683757586851</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>18.01892853764511</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>95.40034858567711</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>94.90446584096617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.921725653453</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247747</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>35.01474696300851</v>
+        <v>87.57359205607553</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>38.81758817917253</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>113.5103646250816</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>56.12687015635222</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>3.016257466625213</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>11.65980277056625</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>114.4746605491556</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2848,7 +2848,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3009,7 +3009,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>159.4891977481208</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>83.92159280918544</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>181.1375494785995</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.921725653453</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3717,7 +3717,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>181.1375494785995</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>18.26879610203937</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>201.360032484281</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>36.41670903610059</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1276.695321531225</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>865.7094167416178</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>447.7456086398047</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2359.740251290533</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2105.978465928625</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1774.915578585054</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1422.14692331494</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.14692331494</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.14692331494</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4588,31 +4588,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2662.300141494594</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2662.300141494594</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2662.300141494594</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2662.300141494594</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>2331.237254151024</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W5" t="n">
-        <v>1978.468598880909</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X5" t="n">
-        <v>1978.468598880909</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1154.883827626213</v>
       </c>
     </row>
     <row r="6">
@@ -4643,22 +4643,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942401</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C7" t="n">
-        <v>550.5654064942401</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>550.5654064942401</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>402.6523129118469</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>255.7623654139366</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>86.76256515226899</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942401</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942401</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942401</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2072.529454785695</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="C8" t="n">
-        <v>1703.566937845283</v>
+        <v>1878.345729894537</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>1520.080031287787</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>1134.291778689543</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>723.305873899935</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>305.3420657981219</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4804,10 +4804,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2677.763961877754</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2677.763961877754</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2459.129294849817</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2459.129294849817</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>2459.129294849817</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W8" t="n">
-        <v>2459.129294849817</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="X8" t="n">
-        <v>2459.129294849817</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="Y8" t="n">
-        <v>2459.129294849817</v>
+        <v>2247.308246834949</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4886,10 +4886,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4898,7 +4898,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>559.1928012785274</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>409.0761618661917</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837986</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2731207858882</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2731207858882</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>680.5111271432434</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>680.5111271432434</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>680.5111271432434</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>680.5111271432434</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>680.5111271432434</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5029,64 +5029,64 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1070.832524924161</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2055.398642844494</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903276</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
@@ -5153,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>805.5092287479694</v>
+        <v>506.5178070419668</v>
       </c>
       <c r="C13" t="n">
-        <v>805.5092287479694</v>
+        <v>506.5178070419668</v>
       </c>
       <c r="D13" t="n">
-        <v>655.3925893356336</v>
+        <v>506.5178070419668</v>
       </c>
       <c r="E13" t="n">
-        <v>507.4794957532405</v>
+        <v>506.5178070419668</v>
       </c>
       <c r="F13" t="n">
-        <v>360.5895482553301</v>
+        <v>359.6278595440564</v>
       </c>
       <c r="G13" t="n">
-        <v>192.886711630049</v>
+        <v>191.9250229187753</v>
       </c>
       <c r="H13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1860.480369295647</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1638.713753865173</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1349.610886990817</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V13" t="n">
-        <v>1094.92639878493</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W13" t="n">
-        <v>805.5092287479694</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X13" t="n">
-        <v>805.5092287479694</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="Y13" t="n">
-        <v>805.5092287479694</v>
+        <v>688.1662718722065</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K14" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1971.087962216427</v>
+        <v>1797.117834600128</v>
       </c>
       <c r="M14" t="n">
-        <v>2504.619866888352</v>
+        <v>2330.649739272053</v>
       </c>
       <c r="N14" t="n">
-        <v>3051.398683947134</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O14" t="n">
-        <v>3931.363334276589</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107236</v>
@@ -5302,7 +5302,7 @@
         <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
         <v>4667.761053946815</v>
@@ -5314,16 +5314,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N15" t="n">
         <v>1715.000032008795</v>
@@ -5378,7 +5378,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5387,16 +5387,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>243.4741280307875</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="C16" t="n">
-        <v>243.4741280307875</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="D16" t="n">
-        <v>243.4741280307875</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O16" t="n">
         <v>1646.12566951853</v>
@@ -5463,25 +5463,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U16" t="n">
         <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W16" t="n">
-        <v>873.9047229025747</v>
+        <v>820.8149803843256</v>
       </c>
       <c r="X16" t="n">
-        <v>645.9151720045573</v>
+        <v>592.8254294863083</v>
       </c>
       <c r="Y16" t="n">
-        <v>425.1225928610272</v>
+        <v>592.8254294863083</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
@@ -5524,25 +5524,25 @@
         <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2949.638265046256</v>
+        <v>2649.230460361821</v>
       </c>
       <c r="N17" t="n">
-        <v>3496.417082105038</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
         <v>4461.783306331037</v>
@@ -5551,16 +5551,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839441</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839441</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1917.133781075237</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1695.367165644763</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1406.264298770406</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1151.579810564519</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>862.1626405275587</v>
       </c>
       <c r="X19" t="n">
-        <v>391.866433243363</v>
+        <v>634.1730896295413</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>413.3805104860112</v>
       </c>
     </row>
     <row r="20">
@@ -5749,7 +5749,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
@@ -5758,13 +5758,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5822,13 +5822,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193956</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
         <v>487.9678785494859</v>
@@ -6059,13 +6059,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>432.2000540015823</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736754</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F25" t="n">
         <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>1097.912313637752</v>
       </c>
       <c r="X25" t="n">
-        <v>709.6864413838521</v>
+        <v>1097.912313637752</v>
       </c>
       <c r="Y25" t="n">
-        <v>488.8938622403219</v>
+        <v>877.1197344942216</v>
       </c>
     </row>
     <row r="26">
@@ -6205,73 +6205,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>806.1613418786371</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1670.680157531992</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2649.23046036182</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>742.0073655524387</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>573.0711826245318</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>422.9545432121961</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>275.041449629803</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>275.041449629803</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>107.3386130045219</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>107.3386130045219</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>962.7999446959689</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>742.0073655524387</v>
       </c>
     </row>
     <row r="29">
@@ -6442,49 +6442,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>818.2062848686776</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L29" t="n">
-        <v>1682.725100522032</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6496,13 +6496,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
@@ -6542,10 +6542,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
         <v>794.2006632320242</v>
@@ -6560,22 +6560,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6648,13 +6648,13 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
         <v>1015.408799357142</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6706,46 +6706,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193956</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420603</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>559.5976972681534</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>559.5976972681534</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1412.556111024461</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>1123.1389409875</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>962.0387412419233</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>741.2461620983931</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6925,7 +6925,7 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6934,49 +6934,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>907.9024249011961</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
-        <v>1772.421240554551</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2750.971543384379</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N35" t="n">
-        <v>3297.750360443162</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O35" t="n">
-        <v>3800.722831322499</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839441</v>
+        <v>1036.495701195955</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839441</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839441</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839441</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.093287563029</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.408799357142</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="W37" t="n">
-        <v>725.9916293201816</v>
+        <v>1666.926296067742</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>1438.936745169725</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>1218.144166026195</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>818.2062848686787</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1682.725100522033</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,7 +7520,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
         <v>2043.809373447819</v>
@@ -7529,7 +7529,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
         <v>1346.568408282342</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>578.4172407837245</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="C43" t="n">
-        <v>409.4810578558177</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="D43" t="n">
-        <v>409.4810578558177</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="E43" t="n">
-        <v>409.4810578558177</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="F43" t="n">
-        <v>409.4810578558177</v>
+        <v>114.0143638443938</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T43" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1752.949493898359</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.265005692472</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W43" t="n">
-        <v>1208.847835655512</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X43" t="n">
-        <v>980.8582847574944</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y43" t="n">
-        <v>760.0657056139643</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196074</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M44" t="n">
-        <v>2337.214217867999</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N44" t="n">
-        <v>3316.966490094645</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O44" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C46" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D46" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E46" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1919.558911522784</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1727.87302734961</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1506.106411919136</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1217.00354504478</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>962.3190568388932</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>672.9018868019325</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>444.9123359039152</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y46" t="n">
-        <v>444.9123359039152</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599052</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8546,10 +8546,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783517</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>288.0478149561023</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8701,10 +8701,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>344.7025836476837</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>241.9338129178247</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>146.0713065388574</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9172,13 +9172,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>146.0713065388582</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>77.35795430876999</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277297</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>189.7998007892634</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9886,10 +9886,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>201.9664098701124</v>
+        <v>219.3344627260164</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,25 +10354,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>251.7982062376315</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,22 +10588,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>123.4719563470472</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,19 +10825,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260167</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>29.61882225792002</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,19 +11062,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>201.9664098701136</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>258.6211785616921</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>49.35466632864367</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>94.86455949047573</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>251.5082513735825</v>
+        <v>198.9494062805155</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>150.9514371522694</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>123.7051100255851</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>283.5067408699658</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>84.69261763927184</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25125,22 +25125,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>66.22045764091638</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>83.32522828944239</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>105.0742887270134</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>147.7570121569888</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>84.85180572133191</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>161.5631840798975</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>52.51544363394674</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751956.8841304289</v>
+        <v>751956.8841304288</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751956.8841304288</v>
+        <v>751956.8841304289</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751956.8841304288</v>
+        <v>751956.8841304289</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>751956.8841304288</v>
+        <v>751956.884130429</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>751956.8841304289</v>
+        <v>751956.8841304288</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>751956.8841304288</v>
+        <v>751956.8841304289</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>751956.8841304288</v>
+        <v>751956.8841304289</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380334</v>
@@ -26322,40 +26322,40 @@
         <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>655184.9483635228</v>
+        <v>655184.9483635226</v>
       </c>
       <c r="F2" t="n">
+        <v>655184.948363522</v>
+      </c>
+      <c r="G2" t="n">
         <v>655184.9483635225</v>
       </c>
-      <c r="G2" t="n">
-        <v>655184.9483635224</v>
-      </c>
       <c r="H2" t="n">
-        <v>655184.9483635225</v>
+        <v>655184.9483635223</v>
       </c>
       <c r="I2" t="n">
-        <v>655184.9483635228</v>
+        <v>655184.9483635226</v>
       </c>
       <c r="J2" t="n">
         <v>655184.9483635228</v>
       </c>
       <c r="K2" t="n">
-        <v>655184.9483635225</v>
+        <v>655184.9483635223</v>
       </c>
       <c r="L2" t="n">
-        <v>655184.9483635229</v>
+        <v>655184.9483635223</v>
       </c>
       <c r="M2" t="n">
-        <v>655184.9483635223</v>
+        <v>655184.9483635228</v>
       </c>
       <c r="N2" t="n">
         <v>655184.9483635225</v>
       </c>
       <c r="O2" t="n">
-        <v>655184.9483635224</v>
+        <v>655184.9483635225</v>
       </c>
       <c r="P2" t="n">
-        <v>655184.9483635225</v>
+        <v>655184.9483635223</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934065</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389446</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918988</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="I4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="J4" t="n">
         <v>18148.49231918993</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="N4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="O4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="P4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
     </row>
     <row r="5">
@@ -26472,34 +26472,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="F5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="G5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-178816.1839970485</v>
+        <v>-178816.1839970484</v>
       </c>
       <c r="C6" t="n">
-        <v>411151.6952174959</v>
+        <v>411151.695217496</v>
       </c>
       <c r="D6" t="n">
-        <v>411151.6952174958</v>
+        <v>411151.6952174961</v>
       </c>
       <c r="E6" t="n">
-        <v>-187396.4311050452</v>
+        <v>-186791.6716930133</v>
       </c>
       <c r="F6" t="n">
-        <v>539980.9828883611</v>
+        <v>540585.7423003927</v>
       </c>
       <c r="G6" t="n">
-        <v>539980.982888361</v>
+        <v>540585.7423003932</v>
       </c>
       <c r="H6" t="n">
-        <v>539980.9828883611</v>
+        <v>540585.7423003929</v>
       </c>
       <c r="I6" t="n">
-        <v>539980.9828883613</v>
+        <v>540585.7423003933</v>
       </c>
       <c r="J6" t="n">
-        <v>363557.7636957682</v>
+        <v>364162.5231078005</v>
       </c>
       <c r="K6" t="n">
-        <v>539980.9828883611</v>
+        <v>540585.7423003929</v>
       </c>
       <c r="L6" t="n">
-        <v>539980.9828883614</v>
+        <v>540585.7423003929</v>
       </c>
       <c r="M6" t="n">
-        <v>410338.6680494161</v>
+        <v>410943.4274614488</v>
       </c>
       <c r="N6" t="n">
-        <v>539980.9828883611</v>
+        <v>540585.7423003932</v>
       </c>
       <c r="O6" t="n">
-        <v>539980.982888361</v>
+        <v>540585.7423003932</v>
       </c>
       <c r="P6" t="n">
-        <v>539980.9828883611</v>
+        <v>540585.7423003929</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>85.98948845797261</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>111.3076844110289</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>264.5904647318396</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>19.97794254641989</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>123.6795013432097</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.65885272800586</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>226.9689958712386</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>35.28712472574783</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>96.44405126592665</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>268.2629457043326</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-1.094235813070554e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32317,7 +32317,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898695</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>625.2391015115028</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
@@ -35421,10 +35421,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>897.0044190605952</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>697.523927310157</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P14" t="n">
-        <v>544.8332927582293</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,13 +35892,13 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>684.9924223690849</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>585.4109551969891</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35965,7 +35965,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -36126,7 +36126,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36135,7 +36135,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200619</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>526.9910873446639</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
@@ -36606,10 +36606,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>539.1576964255129</v>
+        <v>556.5257492814169</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>804.1000416505429</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>460.6632429024477</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>556.5257492814171</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>89.2320208001448</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>539.157696425514</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L44" t="n">
         <v>873.2513289427826</v>
@@ -38031,7 +38031,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>766.6741794499112</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
